--- a/wzrv/expdata/2010sig.xlsx
+++ b/wzrv/expdata/2010sig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE12117D-AD57-6447-88F9-ABDD153FE3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB86B97-FBF9-D049-AF20-AEAC6F2D2556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="28">
   <si>
     <t>cms</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>syst2_u</t>
+  </si>
+  <si>
+    <t>pt_max</t>
   </si>
 </sst>
 </file>
@@ -443,21 +446,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="E2" sqref="E2:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="11" width="10.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" style="1"/>
-    <col min="13" max="13" width="15.1640625" style="1" customWidth="1"/>
-    <col min="1014" max="1024" width="10.5" customWidth="1"/>
+    <col min="1" max="12" width="10.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1"/>
+    <col min="14" max="14" width="15.1640625" style="1" customWidth="1"/>
+    <col min="1015" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,58 +474,61 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="O1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>8000</v>
       </c>
@@ -535,59 +541,62 @@
       <c r="D2" s="1">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>743.7</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>0.7</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>6.5</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>19.3</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2">
         <v>5.5</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>0.4</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>2</v>
       </c>
-      <c r="R2">
-        <v>0.6</v>
-      </c>
       <c r="S2">
+        <v>0.6</v>
+      </c>
+      <c r="T2">
         <v>2.4</v>
       </c>
-      <c r="T2">
-        <v>0.6</v>
-      </c>
       <c r="U2">
+        <v>0.6</v>
+      </c>
+      <c r="V2">
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>8000</v>
       </c>
@@ -600,59 +609,62 @@
       <c r="D3" s="1">
         <v>25</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1">
+        <v>50</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>749.5</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>0.7</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>7.7</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>19.5</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3">
+        <v>14</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3">
         <v>7</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.4</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>1.9</v>
       </c>
-      <c r="R3">
-        <v>0.6</v>
-      </c>
       <c r="S3">
+        <v>0.6</v>
+      </c>
+      <c r="T3">
         <v>2.4</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.5</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>8000</v>
       </c>
@@ -665,59 +677,62 @@
       <c r="D4" s="1">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>751.9</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>0.7</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>7.2</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>19.5</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4">
+        <v>14</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4">
         <v>6.3</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0.4</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>2</v>
       </c>
-      <c r="R4">
-        <v>0.6</v>
-      </c>
       <c r="S4">
+        <v>0.6</v>
+      </c>
+      <c r="T4">
         <v>2.5</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>0.5</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>8000</v>
       </c>
@@ -730,59 +745,62 @@
       <c r="D5" s="1">
         <v>25</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="1">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>755</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>0.7</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>7.1</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>19.600000000000001</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5">
+        <v>14</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5">
         <v>6.2</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>0.4</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>2</v>
       </c>
-      <c r="R5">
-        <v>0.6</v>
-      </c>
       <c r="S5">
+        <v>0.6</v>
+      </c>
+      <c r="T5">
         <v>2.4</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>0.5</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>8000</v>
       </c>
@@ -795,59 +813,62 @@
       <c r="D6" s="1">
         <v>25</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="1">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>761.9</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>0.7</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>7.4</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>19.8</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6">
+        <v>14</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6">
         <v>6.6</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>0.4</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>1.9</v>
       </c>
-      <c r="R6">
-        <v>0.6</v>
-      </c>
       <c r="S6">
+        <v>0.6</v>
+      </c>
+      <c r="T6">
         <v>2.4</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>0.7</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>8000</v>
       </c>
@@ -860,59 +881,62 @@
       <c r="D7" s="1">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="1">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>766</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>0.7</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>5.8</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>19.899999999999999</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7">
+        <v>14</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7">
         <v>4.5</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>0.5</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>1.9</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>0.7</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>2.5</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>0.9</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>8000</v>
       </c>
@@ -925,59 +949,62 @@
       <c r="D8" s="1">
         <v>25</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="1">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>774.4</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>0.7</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>5.8</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>20.100000000000001</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8">
+        <v>14</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8">
         <v>4.3</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>0.5</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>1.2</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>2</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>0.8</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>2.8</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8000</v>
       </c>
@@ -990,59 +1017,62 @@
       <c r="D9" s="1">
         <v>25</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="1">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>774.6</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>0.7</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>6.1</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>20.100000000000001</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N9">
+        <v>14</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9">
         <v>4.3</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>0.5</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>1.3</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>0.9</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>2.9</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>1.3</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8000</v>
       </c>
@@ -1055,59 +1085,62 @@
       <c r="D10" s="1">
         <v>25</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="1">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>776.4</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>0.7</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>6.8</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>20.2</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N10">
+        <v>14</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10">
         <v>5.3</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>0.5</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>1.2</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>2.1</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>1</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>2.9</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>1.6</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>8000</v>
       </c>
@@ -1120,59 +1153,62 @@
       <c r="D11" s="1">
         <v>25</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="1">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>771.1</v>
       </c>
-      <c r="G11" s="1">
-        <v>0.6</v>
-      </c>
       <c r="H11" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I11" s="1">
         <v>7.9</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>20</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11">
+        <v>14</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11">
         <v>6.9</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>0.5</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>1</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>1.5</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>1.2</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>2.4</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>1.8</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>8000</v>
       </c>
@@ -1185,59 +1221,62 @@
       <c r="D12" s="1">
         <v>25</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="1">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>748.3</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>0.7</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>18</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>19.5</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12">
+        <v>14</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12">
         <v>17.7</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>0.4</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>0.7</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>1</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>1.3</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>1.9</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>2</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>8000</v>
       </c>
@@ -1250,59 +1289,62 @@
       <c r="D13" s="1">
         <v>25</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="1">
+        <v>50</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>569</v>
       </c>
-      <c r="G13" s="1">
-        <v>0.6</v>
-      </c>
       <c r="H13" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I13" s="1">
         <v>5.3</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>14.8</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N13">
+        <v>14</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13">
         <v>4.3</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>0.3</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>0.9</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>1.8</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>0.5</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="T13">
-        <v>0.6</v>
-      </c>
       <c r="U13">
+        <v>0.6</v>
+      </c>
+      <c r="V13">
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>8000</v>
       </c>
@@ -1315,59 +1357,62 @@
       <c r="D14" s="1">
         <v>25</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="1">
+        <v>50</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>568.9</v>
       </c>
-      <c r="G14" s="1">
-        <v>0.6</v>
-      </c>
       <c r="H14" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I14" s="1">
         <v>6.4</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>14.8</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N14">
+        <v>14</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14">
         <v>5.5</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>0.3</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>0.9</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>1.8</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>0.5</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="T14">
-        <v>0.6</v>
-      </c>
       <c r="U14">
+        <v>0.6</v>
+      </c>
+      <c r="V14">
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>8000</v>
       </c>
@@ -1380,59 +1425,62 @@
       <c r="D15" s="1">
         <v>25</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="1">
+        <v>50</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>564.1</v>
       </c>
-      <c r="G15" s="1">
-        <v>0.6</v>
-      </c>
       <c r="H15" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I15" s="1">
         <v>5.7</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>14.7</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N15">
+        <v>14</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15">
         <v>4.8</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>0.3</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>0.9</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>1.9</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>0.5</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>0.5</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>8000</v>
       </c>
@@ -1445,59 +1493,62 @@
       <c r="D16" s="1">
         <v>25</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="1">
+        <v>50</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>556.1</v>
       </c>
-      <c r="G16" s="1">
-        <v>0.6</v>
-      </c>
       <c r="H16" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I16" s="1">
         <v>5.5</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>14.5</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N16">
+        <v>14</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16">
         <v>4.5999999999999996</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>0.3</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>0.9</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>1.8</v>
       </c>
-      <c r="R16">
-        <v>0.6</v>
-      </c>
       <c r="S16">
+        <v>0.6</v>
+      </c>
+      <c r="T16">
         <v>2.2000000000000002</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>0.5</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>8000</v>
       </c>
@@ -1510,59 +1561,62 @@
       <c r="D17" s="1">
         <v>25</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="1">
+        <v>50</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>549.6</v>
       </c>
-      <c r="G17" s="1">
-        <v>0.6</v>
-      </c>
       <c r="H17" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I17" s="1">
         <v>5.5</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>14.3</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N17">
+        <v>14</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17">
         <v>4.4000000000000004</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>0.3</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>0.9</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>1.8</v>
       </c>
-      <c r="R17">
-        <v>0.6</v>
-      </c>
       <c r="S17">
+        <v>0.6</v>
+      </c>
+      <c r="T17">
         <v>2.2999999999999998</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>0.7</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>8000</v>
       </c>
@@ -1575,59 +1629,62 @@
       <c r="D18" s="1">
         <v>25</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="1">
+        <v>50</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>535.70000000000005</v>
       </c>
-      <c r="G18" s="1">
-        <v>0.6</v>
-      </c>
       <c r="H18" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I18" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>13.9</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N18">
+        <v>14</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18">
         <v>3.2</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>0.3</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>0.9</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>1.8</v>
       </c>
-      <c r="R18">
-        <v>0.6</v>
-      </c>
       <c r="S18">
+        <v>0.6</v>
+      </c>
+      <c r="T18">
         <v>2.4</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>0.8</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>8000</v>
       </c>
@@ -1640,59 +1697,62 @@
       <c r="D19" s="1">
         <v>25</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="1">
+        <v>50</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>521.4</v>
       </c>
-      <c r="G19" s="1">
-        <v>0.6</v>
-      </c>
       <c r="H19" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I19" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>13.6</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N19">
+        <v>14</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19">
         <v>2.9</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>0.3</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>1</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>2</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>0.7</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>2.5</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>8000</v>
       </c>
@@ -1705,59 +1765,62 @@
       <c r="D20" s="1">
         <v>25</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="1">
+        <v>50</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>508.3</v>
       </c>
-      <c r="G20" s="1">
-        <v>0.6</v>
-      </c>
       <c r="H20" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I20" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <v>13.2</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N20">
+        <v>14</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20">
         <v>2.8</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.4</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>1</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>2.1</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0.8</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>2.8</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>1.2</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>8000</v>
       </c>
@@ -1770,59 +1833,62 @@
       <c r="D21" s="1">
         <v>25</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="1">
+        <v>50</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>487.7</v>
       </c>
-      <c r="G21" s="1">
-        <v>0.6</v>
-      </c>
       <c r="H21" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I21" s="1">
         <v>5.2</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <v>12.7</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N21">
+        <v>14</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21">
         <v>3.4</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.4</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>1</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>2.1</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.9</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>2.7</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>1.5</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>8000</v>
       </c>
@@ -1835,59 +1901,62 @@
       <c r="D22" s="1">
         <v>25</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="1">
+        <v>50</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>466.6</v>
       </c>
-      <c r="G22" s="1">
-        <v>0.6</v>
-      </c>
       <c r="H22" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I22" s="1">
         <v>5.3</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J22" s="1">
         <v>12.1</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N22">
+        <v>14</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22">
         <v>4</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.3</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.8</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>1.5</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>2.2999999999999998</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>1.6</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>8000</v>
       </c>
@@ -1900,55 +1969,58 @@
       <c r="D23" s="1">
         <v>25</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="1">
+        <v>50</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>439.8</v>
       </c>
-      <c r="G23" s="1">
-        <v>0.6</v>
-      </c>
       <c r="H23" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I23" s="1">
         <v>10.6</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <v>11.4</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N23">
+        <v>14</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23">
         <v>10.1</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>0.3</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>0.5</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>1</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>1.2</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>1.7</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>1.9</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>0.1</v>
       </c>
     </row>

--- a/wzrv/expdata/2010sig.xlsx
+++ b/wzrv/expdata/2010sig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB86B97-FBF9-D049-AF20-AEAC6F2D2556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0DAB41-1DDE-CB49-99A6-A308ABDA28F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E23"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,7 +542,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -610,7 +610,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -678,7 +678,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
@@ -746,7 +746,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
@@ -814,7 +814,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -882,7 +882,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
@@ -950,7 +950,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
@@ -1018,7 +1018,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
@@ -1154,7 +1154,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
@@ -1222,7 +1222,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
@@ -1290,7 +1290,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>15</v>
@@ -1358,7 +1358,7 @@
         <v>25</v>
       </c>
       <c r="E14" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>15</v>
@@ -1426,7 +1426,7 @@
         <v>25</v>
       </c>
       <c r="E15" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>15</v>
@@ -1494,7 +1494,7 @@
         <v>25</v>
       </c>
       <c r="E16" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>15</v>
@@ -1562,7 +1562,7 @@
         <v>25</v>
       </c>
       <c r="E17" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>15</v>
@@ -1630,7 +1630,7 @@
         <v>25</v>
       </c>
       <c r="E18" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>15</v>
@@ -1698,7 +1698,7 @@
         <v>25</v>
       </c>
       <c r="E19" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>15</v>
@@ -1766,7 +1766,7 @@
         <v>25</v>
       </c>
       <c r="E20" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>15</v>
@@ -1834,7 +1834,7 @@
         <v>25</v>
       </c>
       <c r="E21" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>15</v>
@@ -1902,7 +1902,7 @@
         <v>25</v>
       </c>
       <c r="E22" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>15</v>
@@ -1970,7 +1970,7 @@
         <v>25</v>
       </c>
       <c r="E23" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>15</v>
